--- a/Data/g5.1.xlsx
+++ b/Data/g5.1.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>VAB: variação do volume (direta)</t>
+          <t>VAB: variação do volume (direita)</t>
         </is>
       </c>
     </row>
